--- a/Document/MeetingMinute/19052015.xlsx
+++ b/Document/MeetingMinute/19052015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -137,6 +137,38 @@
   </si>
   <si>
     <t>tìm thuật toán (lead)</t>
+  </si>
+  <si>
+    <t>suggest dựa vào skill, isAvailable, Mark(từ proj trước or đánh giá trước</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">chuyển thành manager </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thêm điểm, đánh giá</t>
+    </r>
+  </si>
+  <si>
+    <t>đã hoàn tất có các trạng thái là: new-&gt;pending(assign mà chưa được accept)-&gt; working(staff đang làm)-&gt;done, reject, cancel, close.</t>
   </si>
 </sst>
 </file>
@@ -174,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,18 +214,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -255,7 +309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,7 +344,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,49 +568,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -567,160 +622,199 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="D10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
